--- a/C8200L-1N-4T.xlsx
+++ b/C8200L-1N-4T.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CFC696-67C8-4595-814B-99CE1D517C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DFB07D-34EC-422F-BB73-D1EC75D0455F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="14595" windowHeight="8746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C8200L-1N-4T" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Throughput</t>
   </si>
@@ -304,18 +304,6 @@
   </si>
   <si>
     <t>operating : 5 to 85%</t>
-  </si>
-  <si>
-    <t>4 x 1Gbps tích hợp</t>
-  </si>
-  <si>
-    <t>Nâng cấp với khe cắm mở rộng</t>
-  </si>
-  <si>
-    <t>Nguồn đôi mặc định</t>
-  </si>
-  <si>
-    <t>Vận hành : 5 to 85%</t>
   </si>
 </sst>
 </file>
@@ -762,17 +750,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.3125" customWidth="1"/>
-    <col min="3" max="4" width="65.1875" customWidth="1"/>
+    <col min="1" max="2" width="26.296875" customWidth="1"/>
+    <col min="3" max="3" width="65.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>78</v>
       </c>
@@ -782,18 +770,15 @@
       <c r="C1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.7">
+    </row>
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="69.75" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:3" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -803,11 +788,8 @@
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="69.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:3" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -817,11 +799,8 @@
       <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -831,18 +810,15 @@
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -852,11 +828,8 @@
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -866,11 +839,8 @@
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -880,11 +850,8 @@
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -894,11 +861,8 @@
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="11" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -908,11 +872,8 @@
       <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -922,11 +883,8 @@
       <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="13" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -936,11 +894,8 @@
       <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="46.5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -950,11 +905,8 @@
       <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -964,11 +916,8 @@
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -978,18 +927,15 @@
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="409.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -999,11 +945,8 @@
       <c r="C18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="162.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="19" spans="1:3" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1013,11 +956,8 @@
       <c r="C19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="116.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="1:3" ht="117" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -1027,11 +967,8 @@
       <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="162.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:3" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1041,11 +978,8 @@
       <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="22" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1055,18 +989,15 @@
       <c r="C22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.7">
+    </row>
+    <row r="23" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1076,11 +1007,8 @@
       <c r="C24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="46.5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1090,11 +1018,8 @@
       <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="26" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>86</v>
       </c>
@@ -1104,18 +1029,15 @@
       <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="23.25" x14ac:dyDescent="0.7">
+    </row>
+    <row r="27" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="46.5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
@@ -1125,11 +1047,8 @@
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="29" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
@@ -1139,11 +1058,8 @@
       <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="30" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -1153,18 +1069,15 @@
       <c r="C30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.7">
+    </row>
+    <row r="31" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
@@ -1174,11 +1087,8 @@
       <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
@@ -1188,11 +1098,8 @@
       <c r="C33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="34" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -1202,18 +1109,15 @@
       <c r="C34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="35" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="23.25" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -1223,14 +1127,11 @@
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.7">
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
     </row>
   </sheetData>

--- a/C8200L-1N-4T.xlsx
+++ b/C8200L-1N-4T.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DFB07D-34EC-422F-BB73-D1EC75D0455F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EC198C-D765-4011-8D59-45D095064843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
-    <t>Throughput</t>
-  </si>
-  <si>
     <t>IPv4 Forwarding Throughput</t>
   </si>
   <si>
@@ -125,14 +122,6 @@
   </si>
   <si>
     <t>Cisco IOS XE Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">●  T0 = Up to 25Mbps (Agg. 50Mbps)
-●  T1 = Up to 200Mbps (Agg. 400Mbps)
-●  T2 = Up to 1Gbps (Agg. 2Gbps) </t>
-  </si>
-  <si>
-    <t>Sản Phẩm:</t>
   </si>
   <si>
     <t xml:space="preserve"> 	
@@ -189,11 +178,6 @@
     <t>Bảo mật</t>
   </si>
   <si>
-    <t>Encryption: DES, 3DES, AES-128 or AES-256 (in CBC and GCM modes)
-Authentication: RSA (748/1024/2048 bit), ECDSA (256/384 bit)
-Integrity: MD5, SHA, SHA-256, SHA-384, SHA-512</t>
-  </si>
-  <si>
     <t>Quản lý lưu lượng</t>
   </si>
   <si>
@@ -261,24 +245,12 @@
     <t>Hệ điều hành</t>
   </si>
   <si>
-    <t>C8200L-1N-4T</t>
-  </si>
-  <si>
-    <t>Sản Phẩm Product:</t>
-  </si>
-  <si>
     <t>Hiệu suất Performance</t>
   </si>
   <si>
     <t>Phần cứng Hardware</t>
   </si>
   <si>
-    <t xml:space="preserve">Thông lượng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thông lượng chuyển </t>
-  </si>
-  <si>
     <t>Key Features Tính năng chính</t>
   </si>
   <si>
@@ -300,10 +272,36 @@
     <t>Software Phần Mềm</t>
   </si>
   <si>
-    <t>Upgrade with expansion module</t>
-  </si>
-  <si>
     <t>operating : 5 to 85%</t>
+  </si>
+  <si>
+    <t>Thông lượng chuyển tiếp</t>
+  </si>
+  <si>
+    <t>Lựa chọn nâng cấp với module mở rộng</t>
+  </si>
+  <si>
+    <t>●  Encryption: DES, 3DES, AES-128 or AES-256 (in CBC and GCM modes)
+●  Authentication: RSA (748/1024/2048 bit), ECDSA (256/384 bit)
+●  Integrity: MD5, SHA, SHA-256, SHA-384, SHA-512</t>
+  </si>
+  <si>
+    <t>Tiếng Việt</t>
+  </si>
+  <si>
+    <t>Tiếng Anh</t>
+  </si>
+  <si>
+    <t>Thông số thiết bị C8200L-1N-4T</t>
+  </si>
+  <si>
+    <t>24 tháng</t>
+  </si>
+  <si>
+    <t>Bảo hành phần cứng</t>
+  </si>
+  <si>
+    <t>Hardware Warranty</t>
   </si>
 </sst>
 </file>
@@ -358,7 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,25 +388,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -750,399 +745,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.296875" customWidth="1"/>
+    <col min="1" max="2" width="26.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="65.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="117" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="163.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="B25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" ht="70.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="163.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="117" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="163.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="7" t="s">
+      <c r="C36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="42" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
